--- a/WebAutomate.xlsx
+++ b/WebAutomate.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UI Path\WebAutomate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC58796A-1AB1-4F40-8BB1-EABC06E666AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337711C1-7A16-46DA-9F36-39347D49BBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="970" yWindow="2750" windowWidth="16800" windowHeight="10210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="970" yWindow="2750" windowWidth="16800" windowHeight="10210" xr2:uid="{CE6FE50B-D9F0-4182-95F8-6D5EE4F1127D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Colombo Climate Data</t>
   </si>
@@ -42,7 +51,7 @@
     <t>Weather</t>
   </si>
   <si>
-    <t>31-07-2025  01:55:17</t>
+    <t>31-07-2025  02:13:03</t>
   </si>
   <si>
     <t>16 km/h</t>
@@ -51,7 +60,13 @@
     <t>Cloudy</t>
   </si>
   <si>
-    <t>31-07-2025  01:55:56</t>
+    <t>31-07-2025  02:13:27</t>
+  </si>
+  <si>
+    <t>31-07-2025  02:13:38</t>
+  </si>
+  <si>
+    <t>31-07-2025  02:13:50</t>
   </si>
 </sst>
 </file>
@@ -124,7 +139,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -136,7 +151,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -183,6 +198,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -218,6 +250,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -369,19 +418,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928EC26F-D9FC-48A4-BDC2-945BCB72635E}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,8 +440,14 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -402,8 +457,14 @@
       <c r="C2">
         <v>29</v>
       </c>
+      <c r="D2">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -413,8 +474,14 @@
       <c r="C3" s="1">
         <v>0.67</v>
       </c>
+      <c r="D3" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -424,8 +491,14 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -433,6 +506,12 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/WebAutomate.xlsx
+++ b/WebAutomate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UI Path\WebAutomate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337711C1-7A16-46DA-9F36-39347D49BBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444AD2A3-C52C-4F4E-A950-0B50C62E3D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="970" yWindow="2750" windowWidth="16800" windowHeight="10210" xr2:uid="{CE6FE50B-D9F0-4182-95F8-6D5EE4F1127D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Colombo Climate Data</t>
   </si>
@@ -67,6 +67,51 @@
   </si>
   <si>
     <t>31-07-2025  02:13:50</t>
+  </si>
+  <si>
+    <t>31-07-2025  02:16:40</t>
+  </si>
+  <si>
+    <t>31-07-2025  02:17:03</t>
+  </si>
+  <si>
+    <t>31-07-2025  02:17:31</t>
+  </si>
+  <si>
+    <t>31-07-2025  02:17:47</t>
+  </si>
+  <si>
+    <t>31-07-2025  02:18:22</t>
+  </si>
+  <si>
+    <t>31-07-2025  02:18:43</t>
+  </si>
+  <si>
+    <t>31-07-2025  03:07:49</t>
+  </si>
+  <si>
+    <t>18 km/h</t>
+  </si>
+  <si>
+    <t>31-07-2025  03:09:27</t>
+  </si>
+  <si>
+    <t>31-07-2025  03:09:52</t>
+  </si>
+  <si>
+    <t>31-07-2025  03:10:19</t>
+  </si>
+  <si>
+    <t>31-07-2025  03:10:53</t>
+  </si>
+  <si>
+    <t>31-07-2025  03:50:12</t>
+  </si>
+  <si>
+    <t>31-07-2025  03:52:25</t>
+  </si>
+  <si>
+    <t>31-07-2025  03:56:04</t>
   </si>
 </sst>
 </file>
@@ -102,8 +147,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -419,99 +473,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928EC26F-D9FC-48A4-BDC2-945BCB72635E}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="18" max="18" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>29</v>
-      </c>
-      <c r="D2">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <v>29</v>
+      <c r="B2" s="1">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1">
+        <v>28</v>
+      </c>
+      <c r="S2">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.67</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.67</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.67</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.67</v>
       </c>
+      <c r="F3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" t="s">
         <v>7</v>
       </c>
     </row>
